--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9188181372694</v>
+        <v>22.79715566666667</v>
       </c>
       <c r="H2">
-        <v>20.9188181372694</v>
+        <v>68.39146700000001</v>
       </c>
       <c r="I2">
-        <v>0.1726107438676603</v>
+        <v>0.181315435549823</v>
       </c>
       <c r="J2">
-        <v>0.1726107438676603</v>
+        <v>0.181315435549823</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>50.76485305662666</v>
+        <v>147.9660255189201</v>
       </c>
       <c r="R2">
-        <v>50.76485305662666</v>
+        <v>1331.694229670281</v>
       </c>
       <c r="S2">
-        <v>0.1083432621310566</v>
+        <v>0.1454451996009388</v>
       </c>
       <c r="T2">
-        <v>0.1083432621310566</v>
+        <v>0.1454451996009388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9188181372694</v>
+        <v>22.79715566666667</v>
       </c>
       <c r="H3">
-        <v>20.9188181372694</v>
+        <v>68.39146700000001</v>
       </c>
       <c r="I3">
-        <v>0.1726107438676603</v>
+        <v>0.181315435549823</v>
       </c>
       <c r="J3">
-        <v>0.1726107438676603</v>
+        <v>0.181315435549823</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>30.11289490925268</v>
+        <v>36.49193141021367</v>
       </c>
       <c r="R3">
-        <v>30.11289490925268</v>
+        <v>328.427382691923</v>
       </c>
       <c r="S3">
-        <v>0.0642674817366037</v>
+        <v>0.03587023594888426</v>
       </c>
       <c r="T3">
-        <v>0.0642674817366037</v>
+        <v>0.03587023594888426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.4743618625753</v>
+        <v>51.67462766666667</v>
       </c>
       <c r="H4">
-        <v>51.4743618625753</v>
+        <v>155.023883</v>
       </c>
       <c r="I4">
-        <v>0.4247385216941342</v>
+        <v>0.4109902024293441</v>
       </c>
       <c r="J4">
-        <v>0.4247385216941342</v>
+        <v>0.4109902024293441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>124.9156811340948</v>
+        <v>335.3966340277522</v>
       </c>
       <c r="R4">
-        <v>124.9156811340948</v>
+        <v>3018.569706249769</v>
       </c>
       <c r="S4">
-        <v>0.2665972926247654</v>
+        <v>0.3296826430970926</v>
       </c>
       <c r="T4">
-        <v>0.2665972926247654</v>
+        <v>0.3296826430970925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.4743618625753</v>
+        <v>51.67462766666667</v>
       </c>
       <c r="H5">
-        <v>51.4743618625753</v>
+        <v>155.023883</v>
       </c>
       <c r="I5">
-        <v>0.4247385216941342</v>
+        <v>0.4109902024293441</v>
       </c>
       <c r="J5">
-        <v>0.4247385216941342</v>
+        <v>0.4109902024293441</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>74.0979743270958</v>
+        <v>82.71676502246969</v>
       </c>
       <c r="R5">
-        <v>74.0979743270958</v>
+        <v>744.450885202227</v>
       </c>
       <c r="S5">
-        <v>0.1581412290693689</v>
+        <v>0.08130755933225162</v>
       </c>
       <c r="T5">
-        <v>0.1581412290693689</v>
+        <v>0.0813075593322516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.565965697059</v>
+        <v>23.76107833333333</v>
       </c>
       <c r="H6">
-        <v>21.565965697059</v>
+        <v>71.28323499999999</v>
       </c>
       <c r="I6">
-        <v>0.1779506546099603</v>
+        <v>0.1889819208209905</v>
       </c>
       <c r="J6">
-        <v>0.1779506546099603</v>
+        <v>0.1889819208209905</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>52.33532183565118</v>
+        <v>154.2224115339006</v>
       </c>
       <c r="R6">
-        <v>52.33532183565118</v>
+        <v>1388.001703805105</v>
       </c>
       <c r="S6">
-        <v>0.1116949848358323</v>
+        <v>0.1515949985803876</v>
       </c>
       <c r="T6">
-        <v>0.1116949848358323</v>
+        <v>0.1515949985803876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.565965697059</v>
+        <v>23.76107833333333</v>
       </c>
       <c r="H7">
-        <v>21.565965697059</v>
+        <v>71.28323499999999</v>
       </c>
       <c r="I7">
-        <v>0.1779506546099603</v>
+        <v>0.1889819208209905</v>
       </c>
       <c r="J7">
-        <v>0.1779506546099603</v>
+        <v>0.1889819208209905</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q7">
-        <v>31.04447174742998</v>
+        <v>38.03490459296833</v>
       </c>
       <c r="R7">
-        <v>31.04447174742998</v>
+        <v>342.314141336715</v>
       </c>
       <c r="S7">
-        <v>0.06625566977412801</v>
+        <v>0.03738692224060298</v>
       </c>
       <c r="T7">
-        <v>0.06625566977412801</v>
+        <v>0.03738692224060297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.2315616052312</v>
+        <v>27.49915666666666</v>
       </c>
       <c r="H8">
-        <v>27.2315616052312</v>
+        <v>82.49746999999999</v>
       </c>
       <c r="I8">
-        <v>0.2247000798282451</v>
+        <v>0.2187124411998423</v>
       </c>
       <c r="J8">
-        <v>0.2247000798282451</v>
+        <v>0.2187124411998423</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N8">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q8">
-        <v>66.08433680720779</v>
+        <v>178.4845871381344</v>
       </c>
       <c r="R8">
-        <v>66.08433680720779</v>
+        <v>1606.36128424321</v>
       </c>
       <c r="S8">
-        <v>0.1410383797915029</v>
+        <v>0.1754438311832448</v>
       </c>
       <c r="T8">
-        <v>0.1410383797915029</v>
+        <v>0.1754438311832448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.2315616052312</v>
+        <v>27.49915666666666</v>
       </c>
       <c r="H9">
-        <v>27.2315616052312</v>
+        <v>82.49746999999999</v>
       </c>
       <c r="I9">
-        <v>0.2247000798282451</v>
+        <v>0.2187124411998423</v>
       </c>
       <c r="J9">
-        <v>0.2247000798282451</v>
+        <v>0.2187124411998423</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N9">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q9">
-        <v>39.20016644593323</v>
+        <v>44.01853255693666</v>
       </c>
       <c r="R9">
-        <v>39.20016644593323</v>
+        <v>396.16679301243</v>
       </c>
       <c r="S9">
-        <v>0.08366170003674218</v>
+        <v>0.04326861001659755</v>
       </c>
       <c r="T9">
-        <v>0.08366170003674218</v>
+        <v>0.04326861001659754</v>
       </c>
     </row>
   </sheetData>
